--- a/Platillas de Valoracion/Primeras Valoraciones/Consumo/VALORACIÓN 2020- NIKE_ADAN.xlsx
+++ b/Platillas de Valoracion/Primeras Valoraciones/Consumo/VALORACIÓN 2020- NIKE_ADAN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB7E20-0137-1A47-87B5-0C72B68C50B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499806D7-4309-8A42-9915-9917E6EDA649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="0" windowWidth="11880" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27800" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Income statement" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -316,7 +316,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -325,12 +325,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Si la empresa posee caja neta introducir con signo negativo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Si la empresa posee caja neta introducir con signo negativo
 </t>
         </r>
       </text>
@@ -430,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Depreciation &amp; Amortization Expense</t>
   </si>
@@ -759,10 +768,10 @@
     <t>Deuda neta/equity</t>
   </si>
   <si>
-    <t>AUTOZONE</t>
-  </si>
-  <si>
     <t>NIKE</t>
+  </si>
+  <si>
+    <t>›</t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-2809]* #,##0_-;\-[$$-2809]* #,##0_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1004,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF17365C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1547,7 +1564,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2312,13 +2329,13 @@
     <xf numFmtId="2" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2353,6 +2370,12 @@
     </xf>
     <xf numFmtId="2" fontId="20" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2505,22 +2528,22 @@
                 <c:formatCode>_-[$$-2809]* #,##0_-;\-[$$-2809]* #,##0_-;_-[$$-2809]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44.324324324324323</c:v>
+                  <c:v>47.674418604651166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.330132735426005</c:v>
+                  <c:v>82.449555413196677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.660292323971255</c:v>
+                  <c:v>92.135998719790976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.263030797681537</c:v>
+                  <c:v>102.59868974257159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.803672371025684</c:v>
+                  <c:v>114.56403147581507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.609826677986717</c:v>
+                  <c:v>127.42857906176761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,16 +2622,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>1044575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2961,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="B1" zoomScale="215" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2977,7 +3000,7 @@
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="268" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="271"/>
       <c r="D2" s="272"/>
@@ -3287,23 +3310,23 @@
       </c>
       <c r="J12" s="253">
         <f t="shared" ref="J12:N12" si="8">J15+J14</f>
-        <v>4047.4315999999999</v>
+        <v>6493.5878000000002</v>
       </c>
       <c r="K12" s="85">
         <f t="shared" si="8"/>
-        <v>4411.7004439999992</v>
+        <v>7078.0107019999996</v>
       </c>
       <c r="L12" s="85">
         <f t="shared" si="8"/>
-        <v>4808.7534839599994</v>
+        <v>7715.0316651799985</v>
       </c>
       <c r="M12" s="85">
         <f t="shared" si="8"/>
-        <v>5241.541297516399</v>
+        <v>8409.3845150461984</v>
       </c>
       <c r="N12" s="86">
         <f t="shared" si="8"/>
-        <v>5713.2800142928745</v>
+        <v>9166.2291214003562</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="18"/>
@@ -3343,23 +3366,23 @@
       </c>
       <c r="J13" s="190">
         <f>J12/J10</f>
-        <v>9.9276528620698884E-2</v>
+        <v>0.15927652862069888</v>
       </c>
       <c r="K13" s="81">
         <f>K12/K10</f>
-        <v>9.927652862069887E-2</v>
+        <v>0.15927652862069888</v>
       </c>
       <c r="L13" s="81">
         <f>L12/L10</f>
-        <v>9.9276528620698884E-2</v>
+        <v>0.15927652862069888</v>
       </c>
       <c r="M13" s="81">
         <f>M12/M10</f>
-        <v>9.9276528620698884E-2</v>
+        <v>0.15927652862069888</v>
       </c>
       <c r="N13" s="82">
         <f>N12/N10</f>
-        <v>9.9276528620698884E-2</v>
+        <v>0.15927652862069888</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3425,23 +3448,23 @@
       </c>
       <c r="J15" s="78">
         <f>J10*$P$16</f>
-        <v>3261.5416</v>
+        <v>5707.6977999999999</v>
       </c>
       <c r="K15" s="78">
         <f>K10*$P$16</f>
-        <v>3555.0803439999995</v>
+        <v>6221.3906019999995</v>
       </c>
       <c r="L15" s="78">
         <f>L10*$P$16</f>
-        <v>3875.0375749599993</v>
+        <v>6781.315756179999</v>
       </c>
       <c r="M15" s="78">
         <f>M10*$P$16</f>
-        <v>4223.7909567063989</v>
+        <v>7391.6341742361983</v>
       </c>
       <c r="N15" s="79">
         <f>N10*$P$16</f>
-        <v>4603.9321428099747</v>
+        <v>8056.8812499174564</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3481,29 +3504,29 @@
       </c>
       <c r="J16" s="241">
         <f t="shared" ref="J16:N16" si="12">(J15/J10)</f>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K16" s="241">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L16" s="241">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M16" s="241">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N16" s="242">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O16" s="43" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="17">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q16" s="14"/>
     </row>
@@ -3600,23 +3623,23 @@
       </c>
       <c r="J19" s="91">
         <f t="shared" ref="J19:N19" si="15">J15-J17-J18</f>
-        <v>3164.5315999999998</v>
+        <v>5610.6877999999997</v>
       </c>
       <c r="K19" s="91">
         <f t="shared" si="15"/>
-        <v>3449.3394439999993</v>
+        <v>6115.6497019999997</v>
       </c>
       <c r="L19" s="91">
         <f t="shared" si="15"/>
-        <v>3759.7799939599995</v>
+        <v>6666.0581751799991</v>
       </c>
       <c r="M19" s="91">
         <f t="shared" si="15"/>
-        <v>4098.1601934163991</v>
+        <v>7266.0034109461985</v>
       </c>
       <c r="N19" s="92">
         <f t="shared" si="15"/>
-        <v>4466.9946108238746</v>
+        <v>7919.9437179313563</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -3641,23 +3664,23 @@
       </c>
       <c r="J20" s="88">
         <f>J19*J21</f>
-        <v>664.55163599999992</v>
+        <v>1178.2444379999999</v>
       </c>
       <c r="K20" s="88">
         <f t="shared" ref="K20:N20" si="16">K19*K21</f>
-        <v>724.36128323999981</v>
+        <v>1284.2864374199999</v>
       </c>
       <c r="L20" s="88">
         <f t="shared" si="16"/>
-        <v>789.55379873159984</v>
+        <v>1399.8722167877997</v>
       </c>
       <c r="M20" s="88">
         <f t="shared" si="16"/>
-        <v>860.61364061744382</v>
+        <v>1525.8607162987016</v>
       </c>
       <c r="N20" s="89">
         <f t="shared" si="16"/>
-        <v>938.06886827301366</v>
+        <v>1663.1881807655848</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -3757,23 +3780,23 @@
       </c>
       <c r="J22" s="93">
         <f t="shared" ref="J22:N22" si="20">J19-J20</f>
-        <v>2499.9799640000001</v>
+        <v>4432.443362</v>
       </c>
       <c r="K22" s="93">
         <f t="shared" si="20"/>
-        <v>2724.9781607599994</v>
+        <v>4831.3632645799998</v>
       </c>
       <c r="L22" s="93">
         <f t="shared" si="20"/>
-        <v>2970.2261952283998</v>
+        <v>5266.1859583921996</v>
       </c>
       <c r="M22" s="93">
         <f t="shared" si="20"/>
-        <v>3237.5465527989554</v>
+        <v>5740.1426946474967</v>
       </c>
       <c r="N22" s="94">
         <f t="shared" si="20"/>
-        <v>3528.9257425508608</v>
+        <v>6256.7555371657718</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
@@ -3854,23 +3877,23 @@
       </c>
       <c r="J24" s="95">
         <f t="shared" ref="J24:N24" si="23">J22-J23</f>
-        <v>2499.9799640000001</v>
+        <v>4432.443362</v>
       </c>
       <c r="K24" s="95">
         <f t="shared" si="23"/>
-        <v>2724.9781607599994</v>
+        <v>4831.3632645799998</v>
       </c>
       <c r="L24" s="95">
         <f t="shared" si="23"/>
-        <v>2970.2261952283998</v>
+        <v>5266.1859583921996</v>
       </c>
       <c r="M24" s="95">
         <f t="shared" si="23"/>
-        <v>3237.5465527989554</v>
+        <v>5740.1426946474967</v>
       </c>
       <c r="N24" s="96">
         <f t="shared" si="23"/>
-        <v>3528.9257425508608</v>
+        <v>6256.7555371657718</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -3910,23 +3933,23 @@
       </c>
       <c r="J25" s="80">
         <f t="shared" ref="J25:N25" si="25">J24/J10</f>
-        <v>6.1320204261690249E-2</v>
+        <v>0.10872020426169025</v>
       </c>
       <c r="K25" s="80">
         <f t="shared" si="25"/>
-        <v>6.1320204261690235E-2</v>
+        <v>0.10872020426169025</v>
       </c>
       <c r="L25" s="80">
         <f t="shared" si="25"/>
-        <v>6.1320204261690249E-2</v>
+        <v>0.10872020426169025</v>
       </c>
       <c r="M25" s="80">
         <f t="shared" si="25"/>
-        <v>6.1320204261690242E-2</v>
+        <v>0.10872020426169024</v>
       </c>
       <c r="N25" s="87">
         <f t="shared" si="25"/>
-        <v>6.1320204261690235E-2</v>
+        <v>0.10872020426169025</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -3966,23 +3989,23 @@
       </c>
       <c r="J26" s="97">
         <f>J24/J27</f>
-        <v>1.6015246406149906</v>
+        <v>2.8394896617552852</v>
       </c>
       <c r="K26" s="97">
         <f t="shared" ref="K26:N26" si="27">K24/K27</f>
-        <v>1.779868165094709</v>
+        <v>3.1556912244154147</v>
       </c>
       <c r="L26" s="97">
         <f>L24/L27</f>
-        <v>1.9788315757684209</v>
+        <v>3.5084516711473683</v>
       </c>
       <c r="M26" s="97">
         <f t="shared" si="27"/>
-        <v>2.2009153995914041</v>
+        <v>3.9022044151240629</v>
       </c>
       <c r="N26" s="98">
         <f t="shared" si="27"/>
-        <v>2.448942222450285</v>
+        <v>4.3419538772836725</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
@@ -4040,23 +4063,23 @@
       <c r="I28" s="83"/>
       <c r="J28" s="265">
         <f>(J26-I26)/I26</f>
-        <v>-4.8534091404611665E-2</v>
+        <v>0.6869410201092826</v>
       </c>
       <c r="K28" s="265">
         <f t="shared" ref="K28:N28" si="29">(K26-J26)/J26</f>
-        <v>0.11135858915741315</v>
+        <v>0.11135858915741341</v>
       </c>
       <c r="L28" s="265">
         <f t="shared" si="29"/>
-        <v>0.11178547634910074</v>
+        <v>0.11178547634910059</v>
       </c>
       <c r="M28" s="265">
         <f t="shared" si="29"/>
-        <v>0.11222977566281429</v>
+        <v>0.11222977566281415</v>
       </c>
       <c r="N28" s="265">
         <f t="shared" si="29"/>
-        <v>0.1126925746009713</v>
+        <v>0.11269257460097171</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -4374,100 +4397,100 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="268" t="str">
+      <c r="B2" s="282" t="str">
         <f>'1.Income statement'!B2</f>
         <v>NIKE</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="284"/>
-      <c r="N2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="287"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="269"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="290"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="269"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287"/>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="288"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="290"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="269"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287"/>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
-      <c r="M5" s="287"/>
-      <c r="N5" s="288"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="288"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="290"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="269"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="288"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="290"/>
     </row>
     <row r="7" spans="2:15" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="269"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
-      <c r="J7" s="287"/>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
-      <c r="M7" s="287"/>
-      <c r="N7" s="288"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="288"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="290"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="282"/>
+      <c r="B8" s="284"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -4556,23 +4579,23 @@
       </c>
       <c r="J10" s="141">
         <f>'1.Income statement'!J12</f>
-        <v>4047.4315999999999</v>
+        <v>6493.5878000000002</v>
       </c>
       <c r="K10" s="140">
         <f>'1.Income statement'!K12</f>
-        <v>4411.7004439999992</v>
+        <v>7078.0107019999996</v>
       </c>
       <c r="L10" s="140">
         <f>'1.Income statement'!L12</f>
-        <v>4808.7534839599994</v>
+        <v>7715.0316651799985</v>
       </c>
       <c r="M10" s="140">
         <f>'1.Income statement'!M12</f>
-        <v>5241.541297516399</v>
+        <v>8409.3845150461984</v>
       </c>
       <c r="N10" s="142">
         <f>'1.Income statement'!N12</f>
-        <v>5713.2800142928745</v>
+        <v>9166.2291214003562</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4700,23 +4723,23 @@
       </c>
       <c r="J13" s="147">
         <f>'1.Income statement'!J20</f>
-        <v>664.55163599999992</v>
+        <v>1178.2444379999999</v>
       </c>
       <c r="K13" s="146">
         <f>'1.Income statement'!K20</f>
-        <v>724.36128323999981</v>
+        <v>1284.2864374199999</v>
       </c>
       <c r="L13" s="146">
         <f>'1.Income statement'!L20</f>
-        <v>789.55379873159984</v>
+        <v>1399.8722167877997</v>
       </c>
       <c r="M13" s="146">
         <f>'1.Income statement'!M20</f>
-        <v>860.61364061744382</v>
+        <v>1525.8607162987016</v>
       </c>
       <c r="N13" s="148">
         <f>'1.Income statement'!N20</f>
-        <v>938.06886827301366</v>
+        <v>1663.1881807655848</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -4806,23 +4829,23 @@
       </c>
       <c r="J15" s="213">
         <f t="shared" si="0"/>
-        <v>2102.1299639999997</v>
+        <v>4034.5933620000005</v>
       </c>
       <c r="K15" s="149">
         <f t="shared" ref="K15:M15" si="1">K10-K11-K12-K13-K14</f>
-        <v>2291.3216607599993</v>
+        <v>4397.7067645799998</v>
       </c>
       <c r="L15" s="149">
         <f t="shared" si="1"/>
-        <v>2497.5406102284001</v>
+        <v>4793.5003733921994</v>
       </c>
       <c r="M15" s="149">
         <f t="shared" si="1"/>
-        <v>2722.3192651489549</v>
+        <v>5224.9154069974966</v>
       </c>
       <c r="N15" s="149">
         <f>N10-N11-N12-N13-N14</f>
-        <v>2967.3279990123606</v>
+        <v>5695.1577936272715</v>
       </c>
       <c r="O15" s="227"/>
     </row>
@@ -4860,23 +4883,23 @@
       </c>
       <c r="J16" s="40">
         <f>J15/'1.Income statement'!J27</f>
-        <v>1.3466559666880202</v>
+        <v>2.5846209878283157</v>
       </c>
       <c r="K16" s="39">
         <f>K15/'1.Income statement'!K27</f>
-        <v>1.4966176752188107</v>
+        <v>2.8724407345395164</v>
       </c>
       <c r="L16" s="39">
         <f>L15/'1.Income statement'!L27</f>
-        <v>1.6639177949556296</v>
+        <v>3.1935378903345764</v>
       </c>
       <c r="M16" s="39">
         <f>M15/'1.Income statement'!M27</f>
-        <v>1.8506589158048639</v>
+        <v>3.5519479313375233</v>
       </c>
       <c r="N16" s="41">
         <f>N15/'1.Income statement'!N27</f>
-        <v>2.0592144337351566</v>
+        <v>3.9522260885685436</v>
       </c>
       <c r="O16" s="217"/>
     </row>
@@ -5105,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5120,99 +5143,99 @@
   <sheetData>
     <row r="1" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="284"/>
-      <c r="N2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="287"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="290"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="290"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="290"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287"/>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="288"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="290"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="290"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287"/>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
-      <c r="M5" s="287"/>
-      <c r="N5" s="288"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="288"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="290"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="290"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="288"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="290"/>
     </row>
     <row r="7" spans="2:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="290"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
-      <c r="J7" s="287"/>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
-      <c r="M7" s="287"/>
-      <c r="N7" s="288"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="288"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="290"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="290"/>
+      <c r="B8" s="292"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -5301,23 +5324,23 @@
       </c>
       <c r="J10" s="45">
         <f>'1.Income statement'!J15</f>
-        <v>3261.5416</v>
+        <v>5707.6977999999999</v>
       </c>
       <c r="K10" s="46">
         <f>'1.Income statement'!K15</f>
-        <v>3555.0803439999995</v>
+        <v>6221.3906019999995</v>
       </c>
       <c r="L10" s="46">
         <f>'1.Income statement'!L15</f>
-        <v>3875.0375749599993</v>
+        <v>6781.315756179999</v>
       </c>
       <c r="M10" s="46">
         <f>'1.Income statement'!M15</f>
-        <v>4223.7909567063989</v>
+        <v>7391.6341742361983</v>
       </c>
       <c r="N10" s="47">
         <f>'1.Income statement'!N15</f>
-        <v>4603.9321428099747</v>
+        <v>8056.8812499174564</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>33</v>
@@ -5414,23 +5437,23 @@
       </c>
       <c r="J12" s="55">
         <f>'1.Income statement'!J20</f>
-        <v>664.55163599999992</v>
+        <v>1178.2444379999999</v>
       </c>
       <c r="K12" s="55">
         <f>'1.Income statement'!K20</f>
-        <v>724.36128323999981</v>
+        <v>1284.2864374199999</v>
       </c>
       <c r="L12" s="55">
         <f>'1.Income statement'!L20</f>
-        <v>789.55379873159984</v>
+        <v>1399.8722167877997</v>
       </c>
       <c r="M12" s="55">
         <f>'1.Income statement'!M20</f>
-        <v>860.61364061744382</v>
+        <v>1525.8607162987016</v>
       </c>
       <c r="N12" s="56">
         <f>'1.Income statement'!N20</f>
-        <v>938.06886827301366</v>
+        <v>1663.1881807655848</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -5467,23 +5490,23 @@
       </c>
       <c r="J13" s="45">
         <f>'1.Income statement'!J24</f>
-        <v>2499.9799640000001</v>
+        <v>4432.443362</v>
       </c>
       <c r="K13" s="46">
         <f>'1.Income statement'!K24</f>
-        <v>2724.9781607599994</v>
+        <v>4831.3632645799998</v>
       </c>
       <c r="L13" s="46">
         <f>'1.Income statement'!L24</f>
-        <v>2970.2261952283998</v>
+        <v>5266.1859583921996</v>
       </c>
       <c r="M13" s="46">
         <f>'1.Income statement'!M24</f>
-        <v>3237.5465527989554</v>
+        <v>5740.1426946474967</v>
       </c>
       <c r="N13" s="47">
         <f>'1.Income statement'!N24</f>
-        <v>3528.9257425508608</v>
+        <v>6256.7555371657718</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -5533,30 +5556,30 @@
       <c r="F15" s="246"/>
       <c r="G15" s="246"/>
       <c r="H15" s="255">
+        <v>3415</v>
+      </c>
+      <c r="I15" s="152">
         <v>9657</v>
-      </c>
-      <c r="I15" s="152">
-        <v>3479</v>
       </c>
       <c r="J15" s="55">
         <f>I15*$P$10+I15</f>
-        <v>3792.11</v>
+        <v>10526.13</v>
       </c>
       <c r="K15" s="55">
         <f t="shared" ref="K15:N15" si="1">J15*$P$10+J15</f>
-        <v>4133.3999000000003</v>
+        <v>11473.481699999998</v>
       </c>
       <c r="L15" s="55">
         <f t="shared" si="1"/>
-        <v>4505.4058910000003</v>
+        <v>12506.095052999997</v>
       </c>
       <c r="M15" s="55">
         <f t="shared" si="1"/>
-        <v>4910.8924211900003</v>
+        <v>13631.643607769996</v>
       </c>
       <c r="N15" s="56">
         <f t="shared" si="1"/>
-        <v>5352.8727390970998</v>
+        <v>14858.491532469296</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -5657,31 +5680,31 @@
       </c>
       <c r="H18" s="61">
         <f>H17+H15-H14</f>
-        <v>14034</v>
+        <v>7792</v>
       </c>
       <c r="I18" s="61">
         <f>I17+I15-I14</f>
-        <v>2747</v>
+        <v>8925</v>
       </c>
       <c r="J18" s="131">
         <f t="shared" ref="J18:N18" si="6">J17+J15-J14</f>
-        <v>2994.2300000000014</v>
+        <v>9728.2500000000018</v>
       </c>
       <c r="K18" s="61">
         <f t="shared" si="6"/>
-        <v>3263.7107000000015</v>
+        <v>10603.7925</v>
       </c>
       <c r="L18" s="61">
         <f t="shared" si="6"/>
-        <v>3557.4446630000002</v>
+        <v>11558.133824999997</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="6"/>
-        <v>3877.6146826700024</v>
+        <v>12598.365869249996</v>
       </c>
       <c r="N18" s="57">
         <f t="shared" si="6"/>
-        <v>4226.6000041103034</v>
+        <v>13732.218797482499</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -5710,31 +5733,31 @@
       </c>
       <c r="H19" s="58">
         <f>H15-H14+H17-H16</f>
-        <v>13880</v>
+        <v>7638</v>
       </c>
       <c r="I19" s="58">
         <f>I15-I14+I17-I16</f>
-        <v>2524</v>
+        <v>8702</v>
       </c>
       <c r="J19" s="132">
         <f t="shared" ref="J19:N19" si="8">J15-J14+J17-J16</f>
-        <v>2751.1600000000012</v>
+        <v>9485.18</v>
       </c>
       <c r="K19" s="58">
         <f t="shared" si="8"/>
-        <v>2998.7644000000014</v>
+        <v>10338.8462</v>
       </c>
       <c r="L19" s="58">
         <f t="shared" si="8"/>
-        <v>3268.6531960000002</v>
+        <v>11269.342357999998</v>
       </c>
       <c r="M19" s="58">
         <f t="shared" si="8"/>
-        <v>3562.8319836400015</v>
+        <v>12283.583170219998</v>
       </c>
       <c r="N19" s="59">
         <f t="shared" si="8"/>
-        <v>3883.4868621676014</v>
+        <v>13389.105655539797</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
@@ -5785,23 +5808,23 @@
       </c>
       <c r="J21" s="134">
         <f t="shared" ref="J21:N21" si="10">J13/J17</f>
-        <v>0.2847373805090006</v>
+        <v>0.50483697082557411</v>
       </c>
       <c r="K21" s="48">
         <f t="shared" si="10"/>
-        <v>0.28473738050900055</v>
+        <v>0.50483697082557411</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="10"/>
-        <v>0.2847373805090006</v>
+        <v>0.50483697082557411</v>
       </c>
       <c r="M21" s="48">
         <f t="shared" si="10"/>
-        <v>0.28473738050900055</v>
+        <v>0.50483697082557399</v>
       </c>
       <c r="N21" s="49">
         <f t="shared" si="10"/>
-        <v>0.28473738050900049</v>
+        <v>0.50483697082557411</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -5830,31 +5853,31 @@
       </c>
       <c r="H22" s="20">
         <f t="shared" si="11"/>
-        <v>0.34380403458213254</v>
+        <v>0.62477088242995549</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="11"/>
-        <v>1.2341521394611727</v>
+        <v>0.35796368650884852</v>
       </c>
       <c r="J22" s="135">
         <f t="shared" ref="J22:N22" si="12">J10/J19</f>
-        <v>1.1855150554675113</v>
+        <v>0.60174902321305446</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="12"/>
-        <v>1.1855150554675111</v>
+        <v>0.60174902321305446</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="12"/>
-        <v>1.1855150554675116</v>
+        <v>0.60174902321305446</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="12"/>
-        <v>1.1855150554675111</v>
+        <v>0.60174902321305446</v>
       </c>
       <c r="N22" s="22">
         <f t="shared" si="12"/>
-        <v>1.1855150554675111</v>
+        <v>0.60174902321305446</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5883,31 +5906,31 @@
       </c>
       <c r="H23" s="21">
         <f t="shared" si="13"/>
-        <v>0.3400313524298133</v>
+        <v>0.61242299794661192</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="13"/>
-        <v>1.1339643247178741</v>
+        <v>0.34901960784313724</v>
       </c>
       <c r="J23" s="136">
         <f t="shared" ref="J23:N23" si="14">J10/J18</f>
-        <v>1.0892755733527479</v>
+        <v>0.58671372549019596</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="14"/>
-        <v>1.0892755733527477</v>
+        <v>0.58671372549019607</v>
       </c>
       <c r="L23" s="21">
         <f t="shared" si="14"/>
-        <v>1.0892755733527482</v>
+        <v>0.58671372549019618</v>
       </c>
       <c r="M23" s="21">
         <f t="shared" si="14"/>
-        <v>1.0892755733527475</v>
+        <v>0.58671372549019618</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="14"/>
-        <v>1.0892755733527473</v>
+        <v>0.58671372549019596</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
@@ -6000,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6020,22 +6043,22 @@
   <sheetData>
     <row r="1" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="289" t="str">
+      <c r="B2" s="291" t="str">
         <f>'1.Income statement'!B2</f>
         <v>NIKE</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="302"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -6046,19 +6069,19 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="290"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -6069,19 +6092,19 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="290"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="302"/>
-      <c r="N4" s="303"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="305"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -6092,19 +6115,19 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="290"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="303"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="305"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -6115,19 +6138,19 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="290"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="303"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="304"/>
+      <c r="L6" s="304"/>
+      <c r="M6" s="304"/>
+      <c r="N6" s="305"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -6138,19 +6161,19 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="290"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="304"/>
-      <c r="N7" s="305"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="307"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -6161,7 +6184,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="290"/>
+      <c r="B8" s="292"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -6223,12 +6246,12 @@
       <c r="L9" s="30"/>
       <c r="M9" s="60"/>
       <c r="N9" s="120"/>
-      <c r="O9" s="291" t="s">
+      <c r="O9" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="292"/>
+      <c r="P9" s="294"/>
       <c r="Q9" s="15">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -6248,27 +6271,27 @@
       <c r="H10" s="109"/>
       <c r="I10" s="110">
         <f>$Q$9*'1.Income statement'!I27</f>
-        <v>211603</v>
+        <v>216376</v>
       </c>
       <c r="J10" s="109">
         <f>$Q$9*'1.Income statement'!J27</f>
-        <v>207613</v>
+        <v>212296</v>
       </c>
       <c r="K10" s="109">
         <f>$Q$9*'1.Income statement'!K27</f>
-        <v>203623</v>
+        <v>208216</v>
       </c>
       <c r="L10" s="109">
         <f>$Q$9*'1.Income statement'!L27</f>
-        <v>199633</v>
+        <v>204136</v>
       </c>
       <c r="M10" s="109">
         <f>$Q$9*'1.Income statement'!M27</f>
-        <v>195643</v>
+        <v>200056</v>
       </c>
       <c r="N10" s="121">
         <f>$Q$9*'1.Income statement'!N27</f>
-        <v>191653</v>
+        <v>195976</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -6305,11 +6328,11 @@
       </c>
       <c r="H11" s="109">
         <f>'3.retornos capital'!H15-'3.retornos capital'!H14</f>
-        <v>4994</v>
+        <v>-1248</v>
       </c>
       <c r="I11" s="110">
         <f>'3.retornos capital'!I15-'3.retornos capital'!I14</f>
-        <v>-5308</v>
+        <v>870</v>
       </c>
       <c r="J11" s="234">
         <v>1168</v>
@@ -6326,8 +6349,8 @@
       <c r="N11" s="231">
         <v>-300</v>
       </c>
-      <c r="O11" s="293"/>
-      <c r="P11" s="293"/>
+      <c r="O11" s="295"/>
+      <c r="P11" s="295"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -6361,34 +6384,34 @@
       </c>
       <c r="H12" s="137">
         <f>H11/'1.Income statement'!H12</f>
-        <v>0.91181303633375932</v>
+        <v>-0.22786196823078328</v>
       </c>
       <c r="I12" s="12">
         <f>I11/'1.Income statement'!I12</f>
-        <v>-1.383733055265902</v>
+        <v>0.22679874869655892</v>
       </c>
       <c r="J12" s="229">
         <f>J11/'1.Income statement'!J12</f>
-        <v>0.28857807010253123</v>
+        <v>0.17986974781491366</v>
       </c>
       <c r="K12" s="137">
         <f>K11/'1.Income statement'!K12</f>
-        <v>0.1133349841737351</v>
+        <v>7.0641317320799951E-2</v>
       </c>
       <c r="L12" s="137">
         <f>L11/'1.Income statement'!L12</f>
-        <v>6.2386229820404634E-2</v>
+        <v>3.8885128800440344E-2</v>
       </c>
       <c r="M12" s="137">
         <f>M11/'1.Income statement'!M12</f>
-        <v>-6.4103282017296509E-2</v>
+        <v>-3.995536170320476E-2</v>
       </c>
       <c r="N12" s="122">
         <f>N11/'1.Income statement'!N12</f>
-        <v>-5.2509241495164248E-2</v>
-      </c>
-      <c r="O12" s="294"/>
-      <c r="P12" s="294"/>
+        <v>-3.2728834946923954E-2</v>
+      </c>
+      <c r="O12" s="296"/>
+      <c r="P12" s="296"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -6422,11 +6445,11 @@
       </c>
       <c r="H13" s="137">
         <f>H11/'3.retornos capital'!H17</f>
-        <v>0.55243362831858411</v>
+        <v>-0.13805309734513274</v>
       </c>
       <c r="I13" s="137">
         <f>I11/'3.retornos capital'!I17</f>
-        <v>-0.65896958410924888</v>
+        <v>0.10800744878957169</v>
       </c>
       <c r="J13" s="229">
         <f>J11/'3.retornos capital'!J17</f>
@@ -6469,30 +6492,30 @@
       <c r="H14" s="46"/>
       <c r="I14" s="13">
         <f>I10+I11</f>
-        <v>206295</v>
+        <v>217246</v>
       </c>
       <c r="J14" s="46">
         <f t="shared" ref="J14:N14" si="0">J10+J11</f>
-        <v>208781</v>
+        <v>213464</v>
       </c>
       <c r="K14" s="46">
         <f t="shared" si="0"/>
-        <v>204123</v>
+        <v>208716</v>
       </c>
       <c r="L14" s="46">
         <f t="shared" si="0"/>
-        <v>199933</v>
+        <v>204436</v>
       </c>
       <c r="M14" s="46">
         <f t="shared" si="0"/>
-        <v>195307</v>
+        <v>199720</v>
       </c>
       <c r="N14" s="47">
         <f t="shared" si="0"/>
-        <v>191353</v>
-      </c>
-      <c r="O14" s="306"/>
-      <c r="P14" s="306"/>
+        <v>195676</v>
+      </c>
+      <c r="O14" s="308"/>
+      <c r="P14" s="308"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -6534,26 +6557,26 @@
       </c>
       <c r="J15" s="109">
         <f>'1.Income statement'!J12</f>
-        <v>4047.4315999999999</v>
+        <v>6493.5878000000002</v>
       </c>
       <c r="K15" s="109">
         <f>'1.Income statement'!K12</f>
-        <v>4411.7004439999992</v>
+        <v>7078.0107019999996</v>
       </c>
       <c r="L15" s="109">
         <f>'1.Income statement'!L12</f>
-        <v>4808.7534839599994</v>
+        <v>7715.0316651799985</v>
       </c>
       <c r="M15" s="109">
         <f>'1.Income statement'!M12</f>
-        <v>5241.541297516399</v>
+        <v>8409.3845150461984</v>
       </c>
       <c r="N15" s="123">
         <f>'1.Income statement'!N12</f>
-        <v>5713.2800142928745</v>
-      </c>
-      <c r="O15" s="294"/>
-      <c r="P15" s="294"/>
+        <v>9166.2291214003562</v>
+      </c>
+      <c r="O15" s="296"/>
+      <c r="P15" s="296"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -6595,26 +6618,26 @@
       </c>
       <c r="J16" s="109">
         <f>'1.Income statement'!J15</f>
-        <v>3261.5416</v>
+        <v>5707.6977999999999</v>
       </c>
       <c r="K16" s="109">
         <f>'1.Income statement'!K15</f>
-        <v>3555.0803439999995</v>
+        <v>6221.3906019999995</v>
       </c>
       <c r="L16" s="109">
         <f>'1.Income statement'!L15</f>
-        <v>3875.0375749599993</v>
+        <v>6781.315756179999</v>
       </c>
       <c r="M16" s="109">
         <f>'1.Income statement'!M15</f>
-        <v>4223.7909567063989</v>
+        <v>7391.6341742361983</v>
       </c>
       <c r="N16" s="121">
         <f>'1.Income statement'!N15</f>
-        <v>4603.9321428099747</v>
-      </c>
-      <c r="O16" s="294"/>
-      <c r="P16" s="294"/>
+        <v>8056.8812499174564</v>
+      </c>
+      <c r="O16" s="296"/>
+      <c r="P16" s="296"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -6656,26 +6679,26 @@
       </c>
       <c r="J17" s="109">
         <f>'1.Income statement'!J24</f>
-        <v>2499.9799640000001</v>
+        <v>4432.443362</v>
       </c>
       <c r="K17" s="109">
         <f>'1.Income statement'!K24</f>
-        <v>2724.9781607599994</v>
+        <v>4831.3632645799998</v>
       </c>
       <c r="L17" s="109">
         <f>'1.Income statement'!L24</f>
-        <v>2970.2261952283998</v>
+        <v>5266.1859583921996</v>
       </c>
       <c r="M17" s="109">
         <f>'1.Income statement'!M24</f>
-        <v>3237.5465527989554</v>
+        <v>5740.1426946474967</v>
       </c>
       <c r="N17" s="121">
         <f>'1.Income statement'!N24</f>
-        <v>3528.9257425508608</v>
-      </c>
-      <c r="O17" s="294"/>
-      <c r="P17" s="294"/>
+        <v>6256.7555371657718</v>
+      </c>
+      <c r="O17" s="296"/>
+      <c r="P17" s="296"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -6717,26 +6740,26 @@
       </c>
       <c r="J18" s="109">
         <f>'2.Flujos de caja'!J15</f>
-        <v>2102.1299639999997</v>
+        <v>4034.5933620000005</v>
       </c>
       <c r="K18" s="109">
         <f>'2.Flujos de caja'!K15</f>
-        <v>2291.3216607599993</v>
+        <v>4397.7067645799998</v>
       </c>
       <c r="L18" s="109">
         <f>'2.Flujos de caja'!L15</f>
-        <v>2497.5406102284001</v>
+        <v>4793.5003733921994</v>
       </c>
       <c r="M18" s="109">
         <f>'2.Flujos de caja'!M15</f>
-        <v>2722.3192651489549</v>
+        <v>5224.9154069974966</v>
       </c>
       <c r="N18" s="121">
         <f>'2.Flujos de caja'!N15</f>
-        <v>2967.3279990123606</v>
-      </c>
-      <c r="O18" s="294"/>
-      <c r="P18" s="294"/>
+        <v>5695.1577936272715</v>
+      </c>
+      <c r="O18" s="296"/>
+      <c r="P18" s="296"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -6785,8 +6808,8 @@
       <c r="L20" s="114"/>
       <c r="M20" s="114"/>
       <c r="N20" s="124"/>
-      <c r="O20" s="307"/>
-      <c r="P20" s="307"/>
+      <c r="O20" s="309"/>
+      <c r="P20" s="309"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -6800,11 +6823,11 @@
       </c>
       <c r="C21" s="117">
         <f>(L21/$Q$9)^(1/3)-1</f>
-        <v>-0.28082861366739287</v>
+        <v>-8.1880351761690839E-2</v>
       </c>
       <c r="D21" s="117">
         <f>(N21/$Q$9)^(1/5)-1</f>
-        <v>-0.14314321266569674</v>
+        <v>-8.2728021774225446E-3</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="6" t="s">
@@ -6814,34 +6837,34 @@
       <c r="H21" s="6"/>
       <c r="I21" s="256">
         <f>IF(--I11&lt;0,(I17*$Q$21-I11),IF(--I11&gt;0,I17*$Q$21))/'1.Income statement'!I27</f>
-        <v>45.416719044626021</v>
+        <v>50.49654305468259</v>
       </c>
       <c r="J21" s="257">
         <f>IF(--J11&lt;0,(J17*$Q$21-J11),IF(--J11&gt;0,J17*$Q$21))/'1.Income statement'!J27</f>
-        <v>40.038116015374762</v>
+        <v>85.184689852658551</v>
       </c>
       <c r="K21" s="257">
         <f>IF(--K11&lt;0,(K17*$Q$21-K11),IF(--K11&gt;0,K17*$Q$21))/'1.Income statement'!K27</f>
-        <v>44.496704127367721</v>
+        <v>94.670736732462444</v>
       </c>
       <c r="L21" s="257">
         <f>IF(--L11&lt;0,(L17*$Q$21-L11),IF(--L11&gt;0,L17*$Q$21))/'1.Income statement'!L27</f>
-        <v>49.47078939421052</v>
+        <v>105.25355013442103</v>
       </c>
       <c r="M21" s="257">
         <f>IF(--M11&lt;0,(M17*$Q$21-M11),IF(--M11&gt;0,M17*$Q$21))/'1.Income statement'!M27</f>
-        <v>55.251301033292918</v>
+        <v>117.29454849722971</v>
       </c>
       <c r="N21" s="258">
         <f>IF(--N11&lt;0,(N17*$Q$21-N11),IF(--N11&gt;0,N17*$Q$21))/'1.Income statement'!N27</f>
-        <v>61.431744319064201</v>
+        <v>130.46680507631726</v>
       </c>
       <c r="O21" s="130" t="s">
         <v>28</v>
       </c>
       <c r="P21" s="130"/>
       <c r="Q21" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -6855,11 +6878,11 @@
       </c>
       <c r="C22" s="107">
         <f t="shared" ref="C22:C24" si="1">(L22/$Q$9)^(1/3)-1</f>
-        <v>-0.32120274401598392</v>
+        <v>-0.11021556052742099</v>
       </c>
       <c r="D22" s="107">
         <f t="shared" ref="D22:D24" si="2">(N22/$Q$9)^(1/5)-1</f>
-        <v>-0.17223217606545271</v>
+        <v>-2.6721330916794184E-2</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="7" t="s">
@@ -6869,34 +6892,34 @@
       <c r="H22" s="60"/>
       <c r="I22" s="256">
         <f>IF(--I11&lt;0,(I18*$Q$22-I11),IF(--I11&gt;0,I18*$Q$22))/'1.Income statement'!I27</f>
-        <v>39.681332495285986</v>
+        <v>43.614079195474545</v>
       </c>
       <c r="J22" s="257">
         <f>IF(--J11&lt;0,(J18*$Q$22-J11),IF(--J11&gt;0,J18*$Q$22))/'1.Income statement'!J27</f>
-        <v>33.66639916720051</v>
+        <v>77.538629634849471</v>
       </c>
       <c r="K22" s="257">
         <f>IF(--K11&lt;0,(K18*$Q$22-K11),IF(--K11&gt;0,K18*$Q$22))/'1.Income statement'!K27</f>
-        <v>37.415441880470269</v>
+        <v>86.173222036185493</v>
       </c>
       <c r="L22" s="257">
         <f>IF(--L11&lt;0,(L18*$Q$22-L11),IF(--L11&gt;0,L18*$Q$22))/'1.Income statement'!L27</f>
-        <v>41.597944873890739</v>
+        <v>95.806136710037293</v>
       </c>
       <c r="M22" s="257">
         <f>IF(--M11&lt;0,(M18*$Q$22-M11),IF(--M11&gt;0,M18*$Q$22))/'1.Income statement'!M27</f>
-        <v>46.494888938629408</v>
+        <v>106.78685398363352</v>
       </c>
       <c r="N22" s="257">
         <f>IF(--N11&lt;0,(N18*$Q$22-N11),IF(--N11&gt;0,N18*$Q$22))/'1.Income statement'!N27</f>
-        <v>51.688549601185997</v>
-      </c>
-      <c r="O22" s="295" t="s">
+        <v>118.7749714148634</v>
+      </c>
+      <c r="O22" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="296"/>
+      <c r="P22" s="298"/>
       <c r="Q22" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -6910,11 +6933,11 @@
       </c>
       <c r="C23" s="107">
         <f t="shared" si="1"/>
-        <v>-0.25831846189216612</v>
+        <v>-8.9665569742116258E-2</v>
       </c>
       <c r="D23" s="107">
         <f t="shared" si="2"/>
-        <v>-0.12656289735898829</v>
+        <v>-1.2935377921975189E-2</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="7" t="s">
@@ -6924,34 +6947,34 @@
       <c r="H23" s="60"/>
       <c r="I23" s="259">
         <f>((I15*$Q$23)-I11)/'1.Income statement'!I27</f>
-        <v>44.324324324324323</v>
+        <v>47.674418604651166</v>
       </c>
       <c r="J23" s="260">
         <f>((J15*$Q$23)-J11)/'1.Income statement'!J27</f>
-        <v>43.330132735426005</v>
+        <v>82.449555413196677</v>
       </c>
       <c r="K23" s="260">
         <f>((K15*$Q$23)-K11)/'1.Income statement'!K27</f>
-        <v>48.660292323971255</v>
+        <v>92.135998719790976</v>
       </c>
       <c r="L23" s="260">
         <f>((L15*$Q$23)-L11)/'1.Income statement'!L27</f>
-        <v>54.263030797681537</v>
+        <v>102.59868974257159</v>
       </c>
       <c r="M23" s="260">
         <f>((M15*$Q$23)-M11)/'1.Income statement'!M27</f>
-        <v>60.803672371025684</v>
+        <v>114.56403147581507</v>
       </c>
       <c r="N23" s="261">
         <f>((N15*$Q$23)-N11)/'1.Income statement'!N27</f>
-        <v>67.609826677986717</v>
-      </c>
-      <c r="O23" s="297" t="s">
+        <v>127.42857906176761</v>
+      </c>
+      <c r="O23" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="297"/>
+      <c r="P23" s="299"/>
       <c r="Q23" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -6965,11 +6988,11 @@
       </c>
       <c r="C24" s="107">
         <f t="shared" si="1"/>
-        <v>-0.27144378905498079</v>
+        <v>-7.3309356681999116E-2</v>
       </c>
       <c r="D24" s="107">
         <f t="shared" si="2"/>
-        <v>-0.13580611053029235</v>
+        <v>-2.3695014760963806E-3</v>
       </c>
       <c r="E24" s="125"/>
       <c r="F24" s="126" t="s">
@@ -6979,34 +7002,34 @@
       <c r="H24" s="125"/>
       <c r="I24" s="262">
         <f>((I16*$Q$24)-I11)/'1.Income statement'!I27</f>
-        <v>42.494028912633567</v>
+        <v>46.442489000628534</v>
       </c>
       <c r="J24" s="263">
         <f>((J16*$Q$24)-J11)/'1.Income statement'!J27</f>
-        <v>41.039610506085843</v>
+        <v>87.006244202434331</v>
       </c>
       <c r="K24" s="263">
         <f>((K16*$Q$24)-K11)/'1.Income statement'!K27</f>
-        <v>46.114700770738075</v>
+        <v>97.20011394382756</v>
       </c>
       <c r="L24" s="263">
         <f>((L16*$Q$24)-L11)/'1.Income statement'!L27</f>
-        <v>51.432879080079942</v>
+        <v>108.22889949921384</v>
       </c>
       <c r="M24" s="263">
         <f>((M16*$Q$24)-M11)/'1.Income statement'!M27</f>
-        <v>57.655893361065921</v>
+        <v>120.82611841037985</v>
       </c>
       <c r="N24" s="264">
         <f>((N16*$Q$24)-N11)/'1.Income statement'!N27</f>
-        <v>64.107316347119706</v>
-      </c>
-      <c r="O24" s="297" t="s">
+        <v>134.39635669536361</v>
+      </c>
+      <c r="O24" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="297"/>
+      <c r="P24" s="299"/>
       <c r="Q24" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -7220,6 +7243,16 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="Q41" s="8"/>
@@ -7300,16 +7333,16 @@
       <c r="I5" s="170"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="308" t="s">
+      <c r="B6" s="310" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="308"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="308"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="308"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="310"/>
+      <c r="E6" s="310"/>
+      <c r="F6" s="310"/>
+      <c r="G6" s="310"/>
+      <c r="H6" s="310"/>
+      <c r="I6" s="310"/>
     </row>
     <row r="7" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="158"/>
@@ -7406,7 +7439,7 @@
       <c r="I14" s="160"/>
     </row>
     <row r="15" spans="2:9" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="311" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="160"/>
@@ -7418,7 +7451,7 @@
       <c r="I15" s="160"/>
     </row>
     <row r="16" spans="2:9" s="155" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="310"/>
+      <c r="B16" s="312"/>
       <c r="C16" s="160"/>
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
@@ -7464,7 +7497,7 @@
       <c r="I19" s="159"/>
     </row>
     <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="311" t="s">
+      <c r="B20" s="313" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="155"/>
@@ -7476,7 +7509,7 @@
       <c r="I20" s="155"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="309"/>
+      <c r="B21" s="311"/>
       <c r="C21" s="159"/>
       <c r="D21" s="159"/>
       <c r="E21" s="159"/>
@@ -7486,7 +7519,7 @@
       <c r="I21" s="159"/>
     </row>
     <row r="22" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="310"/>
+      <c r="B22" s="312"/>
       <c r="C22" s="159"/>
       <c r="D22" s="159"/>
       <c r="E22" s="159"/>
@@ -7562,11 +7595,11 @@
       <c r="I28" s="166"/>
     </row>
     <row r="29" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="312"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
+      <c r="B29" s="314"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="314"/>
+      <c r="E29" s="314"/>
+      <c r="F29" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="4">
